--- a/biology/Zoologie/Canard_à_sourcils/Canard_à_sourcils.xlsx
+++ b/biology/Zoologie/Canard_à_sourcils/Canard_à_sourcils.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_sourcils</t>
+          <t>Canard_à_sourcils</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anas superciliosa
 Le Canard à sourcils (Anas superciliosa) est une espèce d'oiseaux de la famille des Anatidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_sourcils</t>
+          <t>Canard_à_sourcils</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 54 à 61 cm de longueur, le mâle étant un peu plus grand que la femelle. C'est un canard au plumage foncé avec une tête un peu plus pâle et des traits sur la face; le ventre est plus pâle.
 Dans certaines îles, cette espèce est de taille plus petite et a un plumage plus foncé.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_sourcils</t>
+          <t>Canard_à_sourcils</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce canard fréquente nombre d'habitats humides et il a les mêmes habitudes pour nicher que le canard colvert qui empiète sur son domaine en Nouvelle-Zélande.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_sourcils</t>
+          <t>Canard_à_sourcils</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit en basculant et en plongeant la moitié antérieure de son corps sous l'eau.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_sourcils</t>
+          <t>Canard_à_sourcils</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Répartition et sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend à travers l'Océanie et le sud de l'Indonésie.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_sourcils</t>
+          <t>Canard_à_sourcils</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il en existe 3 sous-espèces :
 Anas superciliosa pelewensis Hartlaub &amp; Finsch 1872 ;
